--- a/cbrunner/Parameters/Parameters_ByBGC.xlsx
+++ b/cbrunner/Parameters/Parameters_ByBGC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE659FED-D76B-430D-89A0-7750A01EE248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB60A7BF-2F8D-4B65-9EEC-DA42AC16744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Proj_Age_1 VRI</t>
   </si>
   <si>
-    <t>SI ByBGC Zone</t>
-  </si>
-  <si>
     <t>Growth Enhancement Factor</t>
   </si>
   <si>
@@ -119,6 +116,39 @@
   </si>
   <si>
     <t>Disturbance Return Interval</t>
+  </si>
+  <si>
+    <t>SpcLead</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>SI SME</t>
   </si>
 </sst>
 </file>
@@ -156,17 +186,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -186,9 +216,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,9 +256,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,26 +291,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,26 +326,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,670 +502,721 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0.15</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3">
         <v>2.5403869108519199</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="3">
         <v>196.01885955937519</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="3">
         <v>3.6810956599279638</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="3">
         <v>149.52315241115889</v>
       </c>
-      <c r="G2" s="1">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4">
         <v>900</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="4">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="3">
         <v>0.25</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="3">
         <v>-999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.04</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
         <v>6.8887820270372488</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="3">
         <v>25.84834502209879</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="3">
         <v>9.7679184253058704</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="3">
         <v>131.4086061012114</v>
       </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4">
         <v>900</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="4">
         <v>5</v>
       </c>
-      <c r="J3" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="3">
         <v>0.18</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>13.55</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3">
         <v>4.7729261777815841</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="3">
         <v>124.36564244057649</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="3">
         <v>11.019533180603149</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="3">
         <v>104.8831844336059</v>
       </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4">
         <v>2500</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L4" s="3">
         <v>0.18</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.03</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3">
         <v>9.6516145484683307</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="3">
         <v>76.943450957891045</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="3">
         <v>22.176669508994909</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="3">
         <v>107.8109081635906</v>
       </c>
-      <c r="G5" s="1">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4">
         <v>1600</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L5" s="3">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0.2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3">
         <v>3.7944399260628452</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="3">
         <v>193.3518131406486</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="3">
         <v>4.8720047120810799</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="3">
         <v>198.01223323811121</v>
       </c>
-      <c r="G6" s="1">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4">
         <v>900</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="J6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L6" s="3">
         <v>0.3</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="3">
         <v>-999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>7.23</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3">
         <v>6.6146478834516094</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="3">
         <v>178.0459787556704</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="3">
         <v>15.17788123025519</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="3">
         <v>202.8714727442952</v>
       </c>
-      <c r="G7" s="1">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4">
         <v>2000</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L7" s="3">
         <v>0.65</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>11.4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3">
         <v>3.4066651204204721</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="3">
         <v>180.9056934561786</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="3">
         <v>9.4582934462036281</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="3">
         <v>160.77369938916249</v>
       </c>
-      <c r="G8" s="1">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4">
         <v>2050</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L8" s="3">
         <v>0.35</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>4.4800000000000004</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3">
         <v>5.0966238343418508</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="3">
         <v>130.76094626235439</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="3">
         <v>16.087946290645871</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="3">
         <v>140.73492133124211</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="4">
         <v>19</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="4">
         <v>2100</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L9" s="3">
         <v>0.5</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>3.4</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3">
         <v>5.3942362088325986</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="3">
         <v>60.828473773465461</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="3">
         <v>13.898159953919709</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="3">
         <v>114.0065953122113</v>
       </c>
-      <c r="G10" s="1">
-        <v>12</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
+        <v>15</v>
+      </c>
+      <c r="I10" s="4">
         <v>950</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="J10" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L10" s="3">
         <v>0.2</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>0</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3">
         <v>3.1748465373641892</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="3">
         <v>175.26092970978991</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="3">
         <v>6.4688751646282254</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="3">
         <v>158.46965330412979</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4">
+        <v>900</v>
+      </c>
+      <c r="J11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
-        <v>900</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L11" s="3">
         <v>0.3</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="3">
         <v>-999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>1.57</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3">
         <v>4.1983721031855863</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="3">
         <v>193.1606636272268</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="3">
         <v>7.512976807380972</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="3">
         <v>242.60726086259891</v>
       </c>
-      <c r="G12" s="1">
-        <v>12</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
+        <v>20</v>
+      </c>
+      <c r="I12" s="4">
         <v>900</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="4">
         <v>5</v>
       </c>
-      <c r="J12" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="K12" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L12" s="3">
         <v>0.5</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>2.36</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3">
         <v>3.991686496495602</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="3">
         <v>118.390827655099</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="3">
         <v>13.569867339668329</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="3">
         <v>105.0204952449018</v>
       </c>
-      <c r="G13" s="1">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4">
         <v>2200</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="4">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L13" s="3">
         <v>0.22</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>0.13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3">
         <v>7.4519938409516318</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="3">
         <v>22.06963951452207</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="3">
         <v>11.12259827893207</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="3">
         <v>129.370333917034</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="4">
         <v>15</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="4">
         <v>900</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="4">
         <v>5</v>
       </c>
-      <c r="J14" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L14" s="3">
         <v>0.2</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>1.75</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3">
         <v>4.1672754687486924</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="3">
         <v>91.0535111220711</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="3">
         <v>11.54170619942996</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="3">
         <v>93.247438914291919</v>
       </c>
-      <c r="G15" s="1">
-        <v>12</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4">
         <v>2200</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L15" s="3">
         <v>0.1</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>7.87</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3">
         <v>4.5104784784448899</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="3">
         <v>122.1365263448613</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="3">
         <v>15.558595512056289</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="3">
         <v>100.408119761297</v>
       </c>
-      <c r="G16" s="1">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
+        <v>17</v>
+      </c>
+      <c r="I16" s="4">
         <v>1800</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="4">
         <v>1</v>
       </c>
-      <c r="J16" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L16" s="3">
         <v>0.35</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>4.0199999999999996</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3">
         <v>3.0779117137582999</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="3">
         <v>185.6939893847923</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="3">
         <v>6.2965769840841466</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="3">
         <v>146.39694635949971</v>
       </c>
-      <c r="G17" s="1">
-        <v>6</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4">
         <v>1900</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="4">
         <v>1</v>
       </c>
-      <c r="J17" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L17" s="3">
         <v>0.15</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L17">
     <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_ByBGC.xlsx
+++ b/cbrunner/Parameters/Parameters_ByBGC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB60A7BF-2F8D-4B65-9EEC-DA42AC16744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B647FF-6888-468C-BF05-F2741F00FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>SI SME</t>
+  </si>
+  <si>
+    <t>Pile Burn Rate</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,7 +521,7 @@
     <col min="11" max="11" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +561,11 @@
       <c r="M1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -596,11 +602,14 @@
       <c r="L2" s="3">
         <v>0.25</v>
       </c>
-      <c r="M2" s="3">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" s="4">
+        <v>500</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -637,11 +646,14 @@
       <c r="L3" s="3">
         <v>0.18</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -678,11 +690,14 @@
       <c r="L4" s="3">
         <v>0.18</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="4">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -719,11 +734,14 @@
       <c r="L5" s="3">
         <v>0.5</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -760,11 +778,14 @@
       <c r="L6" s="3">
         <v>0.3</v>
       </c>
-      <c r="M6" s="3">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="4">
+        <v>500</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -801,11 +822,14 @@
       <c r="L7" s="3">
         <v>0.65</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="4">
         <v>2600</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -842,11 +866,14 @@
       <c r="L8" s="3">
         <v>0.35</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -883,11 +910,14 @@
       <c r="L9" s="3">
         <v>0.5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -924,11 +954,14 @@
       <c r="L10" s="3">
         <v>0.2</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -965,11 +998,14 @@
       <c r="L11" s="3">
         <v>0.3</v>
       </c>
-      <c r="M11" s="3">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" s="4">
+        <v>500</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1006,11 +1042,14 @@
       <c r="L12" s="3">
         <v>0.5</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="4">
         <v>3000</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1047,11 +1086,14 @@
       <c r="L13" s="3">
         <v>0.22</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1088,11 +1130,14 @@
       <c r="L14" s="3">
         <v>0.2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1129,11 +1174,14 @@
       <c r="L15" s="3">
         <v>0.1</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1170,11 +1218,14 @@
       <c r="L16" s="3">
         <v>0.35</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="4">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1211,8 +1262,11 @@
       <c r="L17" s="3">
         <v>0.15</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="4">
         <v>200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_ByBGC.xlsx
+++ b/cbrunner/Parameters/Parameters_ByBGC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B647FF-6888-468C-BF05-F2741F00FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E2DC1C-17B7-4C64-90E1-011926AC56B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="10515" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -158,6 +158,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -199,6 +202,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -508,20 +514,21 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -587,7 +594,7 @@
       <c r="G2" s="3">
         <v>149.52315241115889</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>10</v>
       </c>
       <c r="I2" s="4">
@@ -609,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -631,7 +638,7 @@
       <c r="G3" s="3">
         <v>131.4086061012114</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>12</v>
       </c>
       <c r="I3" s="4">
@@ -653,7 +660,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -675,8 +682,8 @@
       <c r="G4" s="3">
         <v>104.8831844336059</v>
       </c>
-      <c r="H4" s="4">
-        <v>15</v>
+      <c r="H4" s="5">
+        <v>16</v>
       </c>
       <c r="I4" s="4">
         <v>2500</v>
@@ -697,7 +704,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -719,7 +726,7 @@
       <c r="G5" s="3">
         <v>107.8109081635906</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>27</v>
       </c>
       <c r="I5" s="4">
@@ -741,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -763,8 +770,8 @@
       <c r="G6" s="3">
         <v>198.01223323811121</v>
       </c>
-      <c r="H6" s="4">
-        <v>14</v>
+      <c r="H6" s="5">
+        <v>10</v>
       </c>
       <c r="I6" s="4">
         <v>900</v>
@@ -785,7 +792,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -807,7 +814,7 @@
       <c r="G7" s="3">
         <v>202.8714727442952</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>28</v>
       </c>
       <c r="I7" s="4">
@@ -829,7 +836,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -851,8 +858,8 @@
       <c r="G8" s="3">
         <v>160.77369938916249</v>
       </c>
-      <c r="H8" s="4">
-        <v>14</v>
+      <c r="H8" s="5">
+        <v>21</v>
       </c>
       <c r="I8" s="4">
         <v>2050</v>
@@ -873,7 +880,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -895,8 +902,8 @@
       <c r="G9" s="3">
         <v>140.73492133124211</v>
       </c>
-      <c r="H9" s="4">
-        <v>19</v>
+      <c r="H9" s="5">
+        <v>20</v>
       </c>
       <c r="I9" s="4">
         <v>2100</v>
@@ -917,7 +924,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -939,8 +946,8 @@
       <c r="G10" s="3">
         <v>114.0065953122113</v>
       </c>
-      <c r="H10" s="4">
-        <v>15</v>
+      <c r="H10" s="5">
+        <v>19</v>
       </c>
       <c r="I10" s="4">
         <v>950</v>
@@ -961,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -983,8 +990,8 @@
       <c r="G11" s="3">
         <v>158.46965330412979</v>
       </c>
-      <c r="H11" s="4">
-        <v>10</v>
+      <c r="H11" s="5">
+        <v>6</v>
       </c>
       <c r="I11" s="4">
         <v>900</v>
@@ -1005,7 +1012,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1034,8 @@
       <c r="G12" s="3">
         <v>242.60726086259891</v>
       </c>
-      <c r="H12" s="4">
-        <v>20</v>
+      <c r="H12" s="5">
+        <v>7</v>
       </c>
       <c r="I12" s="4">
         <v>900</v>
@@ -1049,7 +1056,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1071,8 +1078,8 @@
       <c r="G13" s="3">
         <v>105.0204952449018</v>
       </c>
-      <c r="H13" s="4">
-        <v>16</v>
+      <c r="H13" s="5">
+        <v>17</v>
       </c>
       <c r="I13" s="4">
         <v>2200</v>
@@ -1093,7 +1100,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1122,7 @@
       <c r="G14" s="3">
         <v>129.370333917034</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>15</v>
       </c>
       <c r="I14" s="4">
@@ -1137,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1159,8 +1166,8 @@
       <c r="G15" s="3">
         <v>93.247438914291919</v>
       </c>
-      <c r="H15" s="4">
-        <v>15</v>
+      <c r="H15" s="5">
+        <v>11</v>
       </c>
       <c r="I15" s="4">
         <v>2200</v>
@@ -1181,7 +1188,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1203,8 +1210,8 @@
       <c r="G16" s="3">
         <v>100.408119761297</v>
       </c>
-      <c r="H16" s="4">
-        <v>17</v>
+      <c r="H16" s="5">
+        <v>20</v>
       </c>
       <c r="I16" s="4">
         <v>1800</v>
@@ -1225,7 +1232,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1247,8 +1254,8 @@
       <c r="G17" s="3">
         <v>146.39694635949971</v>
       </c>
-      <c r="H17" s="4">
-        <v>15</v>
+      <c r="H17" s="5">
+        <v>13</v>
       </c>
       <c r="I17" s="4">
         <v>1900</v>
@@ -1284,7 +1291,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1296,7 +1303,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
